--- a/hardware.xlsx
+++ b/hardware.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiejihui\Desktop\CG4001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5480F01-FC15-744E-84DE-AF84F6451B28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E52CC9-3773-4AB2-82DE-3BD794D63E26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="25040" windowHeight="14860" xr2:uid="{7841FF3B-A37E-334D-8055-B96264A896C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7841FF3B-A37E-334D-8055-B96264A896C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,12 +436,12 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>27749</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>

--- a/hardware.xlsx
+++ b/hardware.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiejihui\Desktop\CG4001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/CG4001/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E52CC9-3773-4AB2-82DE-3BD794D63E26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190988D8-97D4-BC4B-A2D6-B74A0831E8C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7841FF3B-A37E-334D-8055-B96264A896C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{7841FF3B-A37E-334D-8055-B96264A896C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,12 +436,12 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>27749</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
